--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hld.net\dfs\users\JCOSTA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCOSTA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>BST-1715</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>IT ADM TEST</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t>CACEIS</t>
+  </si>
+  <si>
+    <t>CMP-COMPASS</t>
+  </si>
+  <si>
+    <t>SPRINT 29</t>
+  </si>
+  <si>
+    <t>RESUME</t>
+  </si>
+  <si>
+    <t>TESTE DE TEXTO</t>
+  </si>
+  <si>
+    <t>TEST DE TEXTO</t>
   </si>
 </sst>
 </file>
@@ -113,153 +140,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CCCC"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEAEAEA"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF009999"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="0"/>
-        </left>
-        <right style="thin">
-          <color theme="0"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -634,83 +522,132 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
+      <c r="A4" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45485</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C15" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -13,9 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>BST-1715</t>
   </si>
@@ -92,29 +93,205 @@
     <t>CACEIS</t>
   </si>
   <si>
-    <t>CMP-COMPASS</t>
-  </si>
-  <si>
     <t>SPRINT 29</t>
   </si>
   <si>
     <t>RESUME</t>
   </si>
   <si>
-    <t>TESTE DE TEXTO</t>
-  </si>
-  <si>
-    <t>TEST DE TEXTO</t>
+    <t>CMP</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>COMPASS</t>
+  </si>
+  <si>
+    <t>CONCERTO</t>
+  </si>
+  <si>
+    <t>PROJECT NAME</t>
+  </si>
+  <si>
+    <t>SPRINT</t>
+  </si>
+  <si>
+    <t>EXPECTED TICKETS</t>
+  </si>
+  <si>
+    <t>STORY POINTS</t>
+  </si>
+  <si>
+    <t>STATUS OF SPRINT</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>STORY</t>
+  </si>
+  <si>
+    <t>CHANGE REQUEST</t>
+  </si>
+  <si>
+    <t>DEFECT</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>DEVELOPMENT AND SCOPE</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the scope of Sprint 29 we've raised the following priorities: </t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>STARTED</t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development of 2 tickets (mention ticket IDs if possible) </t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge transfer and documentation updates </t>
+  </si>
+  <si>
+    <t>EXPECTED DATES OF DEPLOYMENT</t>
+  </si>
+  <si>
+    <t>QUAL</t>
+  </si>
+  <si>
+    <t>PREPROD</t>
+  </si>
+  <si>
+    <t>PROD</t>
+  </si>
+  <si>
+    <t>TO BE CONFIRMED</t>
+  </si>
+  <si>
+    <t>ANALYSE AND TESTING</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>CMP-100</t>
+  </si>
+  <si>
+    <t>BCT SCOPE</t>
+  </si>
+  <si>
+    <t>WAITING</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>GROOMING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test on different environments, in order to see the current results. </t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>IT ADM</t>
+  </si>
+  <si>
+    <t>TESTE</t>
+  </si>
+  <si>
+    <t>DEFINITION OF GOALS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start to prepare release on PROD environment - August 2024 </t>
+  </si>
+  <si>
+    <t>RELEASE ON PRODUCTION ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>CREATION AND ANALYSE OF US</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write the new US related to Top Transaction Banking | Select PNL Item to aplly for step 2 VER BY BL </t>
+  </si>
+  <si>
+    <t>Creation of US for Uplouad of Rules</t>
+  </si>
+  <si>
+    <t>BRAINSTORM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brainstorm on Monitoring and Performance topics </t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>João Costa</t>
+  </si>
+  <si>
+    <t>Project Manager | Scrum Master</t>
+  </si>
+  <si>
+    <t>joao.costa@caceis.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="\+00000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -140,9 +317,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -211,49 +403,49 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+      <sheetData sheetId="23" refreshError="1"/>
+      <sheetData sheetId="24" refreshError="1"/>
+      <sheetData sheetId="25" refreshError="1"/>
+      <sheetData sheetId="26" refreshError="1"/>
+      <sheetData sheetId="27" refreshError="1"/>
+      <sheetData sheetId="28" refreshError="1"/>
+      <sheetData sheetId="29" refreshError="1"/>
+      <sheetData sheetId="30" refreshError="1"/>
+      <sheetData sheetId="31" refreshError="1"/>
+      <sheetData sheetId="32" refreshError="1"/>
+      <sheetData sheetId="33" refreshError="1"/>
+      <sheetData sheetId="34" refreshError="1"/>
+      <sheetData sheetId="35" refreshError="1"/>
+      <sheetData sheetId="36" refreshError="1"/>
+      <sheetData sheetId="37" refreshError="1"/>
+      <sheetData sheetId="38" refreshError="1"/>
+      <sheetData sheetId="39" refreshError="1"/>
+      <sheetData sheetId="40" refreshError="1"/>
+      <sheetData sheetId="41" refreshError="1"/>
+      <sheetData sheetId="42" refreshError="1"/>
+      <sheetData sheetId="43" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -522,132 +714,467 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="75.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>A3</f>
+        <v>SPRINT</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
+        <v>351965280453</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Usage Interne / Internal Use</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>21</v>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45468</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>24</v>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>BST-1715</t>
   </si>
@@ -192,9 +192,6 @@
     <t>ACTION</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>CMP-100</t>
   </si>
   <si>
@@ -256,6 +253,21 @@
   </si>
   <si>
     <t>joao.costa@caceis.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation of documentation for features to be worked on this sprint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knowledge transfer - UI Fron-End </t>
+  </si>
+  <si>
+    <t>DOCUMENTATION</t>
+  </si>
+  <si>
+    <t>TRAINING</t>
+  </si>
+  <si>
+    <t>PRIORITY2</t>
   </si>
 </sst>
 </file>
@@ -263,9 +275,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="\+00000"/>
+    <numFmt numFmtId="164" formatCode="\+00000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +308,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -317,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -332,14 +352,75 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -403,52 +484,110 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39" refreshError="1"/>
-      <sheetData sheetId="40" refreshError="1"/>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30"/>
+      <sheetData sheetId="31"/>
+      <sheetData sheetId="32"/>
+      <sheetData sheetId="33"/>
+      <sheetData sheetId="34"/>
+      <sheetData sheetId="35"/>
+      <sheetData sheetId="36"/>
+      <sheetData sheetId="37"/>
+      <sheetData sheetId="38"/>
+      <sheetData sheetId="39"/>
+      <sheetData sheetId="40"/>
+      <sheetData sheetId="41"/>
+      <sheetData sheetId="42"/>
+      <sheetData sheetId="43"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A37:F39" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A37:F39"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="PRIORITY"/>
+    <tableColumn id="2" name="JIRA"/>
+    <tableColumn id="3" name="DESCRIPTION"/>
+    <tableColumn id="4" name="STATUS"/>
+    <tableColumn id="5" name="ACTION"/>
+    <tableColumn id="6" name="COMMENTS"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A26:G32" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A26:G32"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="PRIORITY"/>
+    <tableColumn id="2" name="JIRA"/>
+    <tableColumn id="3" name="DESCRIPTION"/>
+    <tableColumn id="4" name="STATUS"/>
+    <tableColumn id="5" name="STORY POINTS"/>
+    <tableColumn id="6" name="COMMENTS"/>
+    <tableColumn id="7" name="PRIORITY2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A18:C19" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A18:C19"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="QUAL" dataDxfId="2"/>
+    <tableColumn id="2" name="PREPROD" dataDxfId="1"/>
+    <tableColumn id="3" name="PROD"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A9:D10" totalsRowShown="0">
+  <autoFilter ref="A9:D10"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="SPRINT">
+      <calculatedColumnFormula>A3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="EXPECTED TICKETS"/>
+    <tableColumn id="3" name="STORY POINTS"/>
+    <tableColumn id="4" name="STATUS OF SPRINT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,18 +853,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="65.42578125" customWidth="1"/>
@@ -769,372 +910,430 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>29</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
         <f>A3</f>
         <v>SPRINT</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C18" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-    </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
+      <c r="G26" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
       <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D30" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
         <v>10</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C31" t="s">
         <v>11</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D32" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B37" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E37" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F37" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" t="s">
         <v>54</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E38" t="s">
         <v>56</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E39" t="s">
         <v>57</v>
       </c>
-      <c r="F36" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F39" t="s">
         <v>61</v>
       </c>
-      <c r="E37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" t="s">
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B49" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="B52" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B53" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="2" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
-        <v>351965280453</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
+        <v>351965280453</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1143,6 +1342,12 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Usage Interne / Internal Use</oddFooter>
   </headerFooter>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>BST-1715</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>PRIORITY2</t>
+  </si>
+  <si>
+    <t>DATES</t>
+  </si>
+  <si>
+    <t>25/06/2024 TO 12/07/2024</t>
   </si>
 </sst>
 </file>
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,25 +365,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="5">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -397,6 +392,20 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -533,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A37:F39" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A37:F39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A39:F41" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A39:F41"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -548,8 +557,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A26:G32" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A26:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A28:G34" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A28:G34"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -564,11 +573,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A18:C19" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A18:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A20:C21" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A20:C21"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="QUAL" dataDxfId="2"/>
-    <tableColumn id="2" name="PREPROD" dataDxfId="1"/>
+    <tableColumn id="1" name="QUAL" dataDxfId="1"/>
+    <tableColumn id="2" name="PREPROD" dataDxfId="0"/>
     <tableColumn id="3" name="PROD"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -576,11 +585,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A9:D10" totalsRowShown="0">
-  <autoFilter ref="A9:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A11:D12" totalsRowShown="0">
+  <autoFilter ref="A11:D12"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SPRINT">
-      <calculatedColumnFormula>A3</calculatedColumnFormula>
+      <calculatedColumnFormula>A5</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="EXPECTED TICKETS"/>
     <tableColumn id="3" name="STORY POINTS"/>
@@ -853,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A2:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,232 +884,191 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>45468</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45485</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>A3</f>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>A5</f>
         <v>SPRINT</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B20" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-    </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>5</v>
-      </c>
-      <c r="F28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G28" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
@@ -1108,28 +1076,34 @@
       <c r="E29">
         <v>10</v>
       </c>
-      <c r="G29">
-        <v>1</v>
+      <c r="F29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>75</v>
+      </c>
+      <c r="G30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,19 +1111,19 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="C31" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31">
-        <v>5</v>
-      </c>
       <c r="G31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1157,186 +1131,230 @@
         <v>34</v>
       </c>
       <c r="B32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D34" t="s">
         <v>15</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>10</v>
       </c>
-      <c r="G32">
+      <c r="G34">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>34</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>53</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C40" t="s">
         <v>54</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D40" t="s">
         <v>55</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E40" t="s">
         <v>56</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>32</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>53</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>59</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
         <v>60</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E41" t="s">
         <v>57</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B44" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B51" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
-        <v>351965280453</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
+        <v>351965280453</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>73</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A9:B9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -1353,20 +1371,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C4"/>
+  <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>22</v>
       </c>
@@ -1374,7 +1395,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>23</v>
       </c>

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
   <si>
     <t>BST-1715</t>
   </si>
@@ -90,9 +90,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>CACEIS</t>
-  </si>
-  <si>
     <t>SPRINT 29</t>
   </si>
   <si>
@@ -241,18 +238,6 @@
   </si>
   <si>
     <t xml:space="preserve">Brainstorm on Monitoring and Performance topics </t>
-  </si>
-  <si>
-    <t>SIGNATURE</t>
-  </si>
-  <si>
-    <t>João Costa</t>
-  </si>
-  <si>
-    <t>Project Manager | Scrum Master</t>
-  </si>
-  <si>
-    <t>joao.costa@caceis.com</t>
   </si>
   <si>
     <t xml:space="preserve">Creation of documentation for features to be worked on this sprint </t>
@@ -280,9 +265,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="\+00000"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -343,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -356,9 +338,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -542,8 +521,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A39:F41" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A39:F41"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A36:F38" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A36:F38"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -557,8 +536,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A28:G34" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A28:G34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A25:G31" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A25:G31"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -573,8 +552,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A20:C21" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A20:C21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A17:C18" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A17:C18"/>
   <tableColumns count="3">
     <tableColumn id="1" name="QUAL" dataDxfId="1"/>
     <tableColumn id="2" name="PREPROD" dataDxfId="0"/>
@@ -585,11 +564,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A11:D12" totalsRowShown="0">
-  <autoFilter ref="A11:D12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A8:D9" totalsRowShown="0">
+  <autoFilter ref="A8:D9"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SPRINT">
-      <calculatedColumnFormula>A5</calculatedColumnFormula>
+      <calculatedColumnFormula>A2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="EXPECTED TICKETS"/>
     <tableColumn id="3" name="STORY POINTS"/>
@@ -862,10 +841,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G66"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,203 +863,257 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="11"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>A2</f>
+        <v>SPRINT</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="str">
-        <f>A5</f>
-        <v>SPRINT</v>
-      </c>
-      <c r="B12" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
+      <c r="A26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>78</v>
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="G29">
         <v>2</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1088,193 +1121,143 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>5</v>
       </c>
-      <c r="F30" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" t="s">
-        <v>77</v>
+      <c r="G30">
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>10</v>
       </c>
       <c r="G31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32">
-        <v>8</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>31</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="4" t="s">
+      <c r="B38" t="s">
         <v>52</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D40" t="s">
-        <v>55</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C38" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" t="s">
         <v>56</v>
       </c>
-      <c r="F40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="F38" t="s">
         <v>60</v>
       </c>
-      <c r="E41" t="s">
-        <v>57</v>
-      </c>
-      <c r="F41" t="s">
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1285,75 +1268,36 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>66</v>
+      <c r="A54" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
-        <v>351965280453</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
+  <mergeCells count="1">
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1381,26 +1325,26 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>BST-1715</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t xml:space="preserve">For the scope of Sprint 29 we've raised the following priorities: </t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
   <si>
     <t>STARTED</t>
@@ -305,12 +302,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,7 +328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -346,6 +349,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A36:F38" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A36:F38"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A37:F39" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A37:F39"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -536,8 +557,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A25:G31" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A25:G31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A26:G32" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A26:G32"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -552,8 +573,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A17:C18" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A17:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A18:C19" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A18:C19"/>
   <tableColumns count="3">
     <tableColumn id="1" name="QUAL" dataDxfId="1"/>
     <tableColumn id="2" name="PREPROD" dataDxfId="0"/>
@@ -564,11 +585,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A8:D9" totalsRowShown="0">
-  <autoFilter ref="A8:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A9:D10" totalsRowShown="0">
+  <autoFilter ref="A9:D10"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SPRINT">
-      <calculatedColumnFormula>A2</calculatedColumnFormula>
+      <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="EXPECTED TICKETS"/>
     <tableColumn id="3" name="STORY POINTS"/>
@@ -841,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A2:G56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,237 +884,218 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="str">
-        <f>A2</f>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>A3</f>
         <v>SPRINT</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="3" t="s">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B16" s="16"/>
+    </row>
+    <row r="17" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="9" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>69</v>
-      </c>
-      <c r="G26" t="s">
-        <v>71</v>
+      <c r="G26" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>2</v>
       </c>
       <c r="E27">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" t="s">
         <v>70</v>
-      </c>
-      <c r="G27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,19 +1103,19 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E29">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,19 +1123,19 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1141,163 +1143,191 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="s">
         <v>13</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C32" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>10</v>
       </c>
-      <c r="G31">
+      <c r="G32">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:6" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="F37" s="4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>31</v>
       </c>
-      <c r="B38" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
         <v>58</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
         <v>59</v>
       </c>
-      <c r="E38" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="6" t="s">
         <v>41</v>
       </c>
+      <c r="B41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B52" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:B6"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1328,7 +1358,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
   <si>
     <t>BST-1715</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>25/06/2024 TO 12/07/2024</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>TABLE</t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -340,21 +346,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -362,10 +359,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A37:F39" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A37:F39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A38:F40" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A38:F40"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -557,8 +557,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A26:G32" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A26:G32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A27:G33" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A27:G33"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -573,8 +573,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A18:C19" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A18:C19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A19:C20" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A19:C20"/>
   <tableColumns count="3">
     <tableColumn id="1" name="QUAL" dataDxfId="1"/>
     <tableColumn id="2" name="PREPROD" dataDxfId="0"/>
@@ -585,11 +585,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A9:D10" totalsRowShown="0">
-  <autoFilter ref="A9:D10"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A10:E11" totalsRowShown="0">
+  <autoFilter ref="A10:E11"/>
+  <tableColumns count="5">
+    <tableColumn id="6" name="TYPE"/>
     <tableColumn id="1" name="SPRINT">
-      <calculatedColumnFormula>A3</calculatedColumnFormula>
+      <calculatedColumnFormula>A4</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="EXPECTED TICKETS"/>
     <tableColumn id="3" name="STORY POINTS"/>
@@ -862,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G56"/>
+  <dimension ref="A3:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,238 +885,224 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="str">
-        <f>A3</f>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="str">
+        <f>A4</f>
         <v>SPRINT</v>
       </c>
-      <c r="B10">
+      <c r="C11">
         <v>20</v>
       </c>
-      <c r="C10">
+      <c r="D11">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="17" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="B17" s="16"/>
+    </row>
+    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="4" t="s">
+      <c r="G27" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
         <v>2</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,19 +1110,19 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,19 +1130,19 @@
         <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1163,141 +1150,153 @@
         <v>33</v>
       </c>
       <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
         <v>13</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>14</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>15</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>10</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="13" t="s">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" s="12" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="B36" s="15"/>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>33</v>
-      </c>
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>31</v>
       </c>
       <c r="B39" t="s">
         <v>51</v>
       </c>
       <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
+        <v>53</v>
+      </c>
+      <c r="E39" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" t="s">
         <v>57</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>58</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>55</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="13" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="B47" s="15"/>
+    </row>
+    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -1305,29 +1304,37 @@
         <v>42</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>BST-1715</t>
   </si>
@@ -256,12 +256,6 @@
   </si>
   <si>
     <t>25/06/2024 TO 12/07/2024</t>
-  </si>
-  <si>
-    <t>TYPE</t>
-  </si>
-  <si>
-    <t>TABLE</t>
   </si>
 </sst>
 </file>
@@ -585,10 +579,9 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A10:E11" totalsRowShown="0">
-  <autoFilter ref="A10:E11"/>
-  <tableColumns count="5">
-    <tableColumn id="6" name="TYPE"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A10:D11" totalsRowShown="0">
+  <autoFilter ref="A10:D11"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="SPRINT">
       <calculatedColumnFormula>A4</calculatedColumnFormula>
     </tableColumn>
@@ -866,7 +859,7 @@
   <dimension ref="A3:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,7 +878,7 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>39</v>
       </c>
@@ -893,7 +886,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>26</v>
       </c>
@@ -901,7 +894,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>73</v>
       </c>
@@ -909,57 +902,51 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" t="str">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
         <f>A4</f>
         <v>SPRINT</v>
       </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
       <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
         <v>30</v>
       </c>
-      <c r="E11" t="s">
+      <c r="D11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>42</v>
       </c>
@@ -967,7 +954,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
@@ -975,7 +962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="3"/>
     </row>

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
   <si>
     <t>BST-1715</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>DEVELOPMENT AND SCOPE</t>
-  </si>
-  <si>
-    <t>Notes:</t>
   </si>
   <si>
     <t xml:space="preserve">For the scope of Sprint 29 we've raised the following priorities: </t>
@@ -328,7 +325,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,12 +341,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,7 +357,22 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="10">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -536,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A38:F40" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="A38:F40"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A33:F35" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A33:F35"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -551,8 +557,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A27:G33" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A27:G33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A21:G27" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A21:G27"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -567,11 +573,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A19:C20" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A19:C20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A16:C17"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="QUAL" dataDxfId="1"/>
-    <tableColumn id="2" name="PREPROD" dataDxfId="0"/>
+    <tableColumn id="1" name="QUAL" dataDxfId="6"/>
+    <tableColumn id="2" name="PREPROD" dataDxfId="5"/>
     <tableColumn id="3" name="PROD"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -579,15 +585,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A10:D11" totalsRowShown="0">
-  <autoFilter ref="A10:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A8:D9" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A8:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT">
-      <calculatedColumnFormula>A4</calculatedColumnFormula>
+    <tableColumn id="1" name="SPRINT" dataDxfId="4">
+      <calculatedColumnFormula>A3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="EXPECTED TICKETS"/>
-    <tableColumn id="3" name="STORY POINTS"/>
-    <tableColumn id="4" name="STATUS OF SPRINT"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="3"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="2"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -856,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G57"/>
+  <dimension ref="A2:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,450 +884,439 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="str">
+        <f>A3</f>
+        <v>SPRINT</v>
+      </c>
+      <c r="B9" s="5">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="15"/>
-    </row>
-    <row r="9" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="str">
-        <f>A4</f>
-        <v>SPRINT</v>
-      </c>
-      <c r="B11">
-        <v>20</v>
-      </c>
-      <c r="C11">
+      <c r="F21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B38" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="16"/>
-    </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-      <c r="G28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" t="s">
-        <v>2</v>
-      </c>
-      <c r="E29">
-        <v>5</v>
-      </c>
-      <c r="F29" t="s">
-        <v>69</v>
-      </c>
-      <c r="G29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31">
-        <v>8</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32">
-        <v>5</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" t="s">
-        <v>52</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="B42" s="11"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="B44" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
     </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1352,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>BST-1715</t>
   </si>
@@ -198,9 +198,6 @@
     <t>GROOMING</t>
   </si>
   <si>
-    <t xml:space="preserve">Test on different environments, in order to see the current results. </t>
-  </si>
-  <si>
     <t>BS</t>
   </si>
   <si>
@@ -246,13 +243,19 @@
     <t>TRAINING</t>
   </si>
   <si>
-    <t>PRIORITY2</t>
-  </si>
-  <si>
     <t>DATES</t>
   </si>
   <si>
     <t>25/06/2024 TO 12/07/2024</t>
+  </si>
+  <si>
+    <t>CMP_SPRINT_29</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>Test on different environments</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
     <tableColumn id="4" name="STATUS"/>
     <tableColumn id="5" name="STORY POINTS"/>
     <tableColumn id="6" name="COMMENTS"/>
-    <tableColumn id="7" name="PRIORITY2"/>
+    <tableColumn id="7" name="ORDER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -585,15 +588,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A8:D9" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A8:D9" totalsRowShown="0" dataDxfId="4">
   <autoFilter ref="A8:D9"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="4">
-      <calculatedColumnFormula>A3</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="3"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="2"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="1"/>
+    <tableColumn id="1" name="SPRINT" dataDxfId="3"/>
+    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="2"/>
+    <tableColumn id="3" name="STORY POINTS" dataDxfId="1"/>
+    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -865,7 +866,7 @@
   <dimension ref="A2:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,10 +903,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -929,9 +930,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="str">
-        <f>A3</f>
-        <v>SPRINT</v>
+      <c r="A9" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B9" s="5">
         <v>20</v>
@@ -1027,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1047,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1070,10 +1070,10 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1212,7 +1212,7 @@
         <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1223,16 +1223,16 @@
         <v>50</v>
       </c>
       <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
         <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>57</v>
       </c>
       <c r="E35" t="s">
         <v>54</v>
       </c>
       <c r="F35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1259,13 +1259,13 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B42" s="11"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1273,12 +1273,12 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,7 +1286,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,12 +1294,12 @@
         <v>41</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1307,7 +1307,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1347,7 +1347,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
   <si>
     <t>BST-1715</t>
   </si>
@@ -141,9 +141,6 @@
     <t>DEVELOPMENT AND SCOPE</t>
   </si>
   <si>
-    <t xml:space="preserve">For the scope of Sprint 29 we've raised the following priorities: </t>
-  </si>
-  <si>
     <t>STARTED</t>
   </si>
   <si>
@@ -256,6 +253,15 @@
   </si>
   <si>
     <t>Test on different environments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* For the scope of Sprint 29 we've raised the following priorities: </t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Development of 2 tickets (mention ticket IDs if possible) </t>
   </si>
 </sst>
 </file>
@@ -328,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -355,6 +361,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -545,8 +554,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A33:F35" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A33:F35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A32:F34" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A32:F34"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -560,8 +569,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A21:G27" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A21:G27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A20:G26" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A20:G26"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -576,8 +585,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A16:C17" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A16:C17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A15:C16" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A15:C16"/>
   <tableColumns count="3">
     <tableColumn id="1" name="QUAL" dataDxfId="6"/>
     <tableColumn id="2" name="PREPROD" dataDxfId="5"/>
@@ -588,8 +597,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A8:D9" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A8:D9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A7:D8"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SPRINT" dataDxfId="3"/>
     <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="2"/>
@@ -863,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G51"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -885,166 +894,189 @@
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="5">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="11"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="5">
-        <v>20</v>
-      </c>
-      <c r="C9" s="5">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="5"/>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3"/>
+      <c r="B14" s="12"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="12"/>
+      <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="8" t="s">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="11"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>73</v>
+      <c r="G20" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
         <v>66</v>
@@ -1055,25 +1087,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>5</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,19 +1110,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="G24">
         <v>2</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,19 +1130,19 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1121,202 +1150,178 @@
         <v>33</v>
       </c>
       <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26">
         <v>10</v>
       </c>
-      <c r="C26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
       <c r="G26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>33</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="11"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="F33" s="4" t="s">
-        <v>34</v>
+      <c r="C33" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
         <v>53</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" t="s">
         <v>56</v>
       </c>
-      <c r="E35" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>40</v>
+      <c r="A37" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>42</v>
-      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="11"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B42" s="11"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1337,7 +1342,7 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B9" sqref="B9:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1352,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>BST-1715</t>
   </si>
@@ -256,9 +256,6 @@
   </si>
   <si>
     <t xml:space="preserve">* For the scope of Sprint 29 we've raised the following priorities: </t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t xml:space="preserve">* Development of 2 tickets (mention ticket IDs if possible) </t>
@@ -356,14 +353,14 @@
     <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -919,10 +916,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -979,10 +976,10 @@
       <c r="B13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -1011,10 +1008,10 @@
       <c r="B17" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
     </row>
     <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
@@ -1171,16 +1168,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="11" t="s">
         <v>74</v>
       </c>
       <c r="B29" s="3"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="11"/>
+      <c r="B31" s="12"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
@@ -1249,24 +1246,22 @@
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>76</v>
+      <c r="A37" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="A38" s="11" t="s">
         <v>41</v>
       </c>
+      <c r="B38" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="11"/>
+      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>BST-1715</t>
   </si>
@@ -144,18 +144,12 @@
     <t>STARTED</t>
   </si>
   <si>
-    <t>PROJECT</t>
-  </si>
-  <si>
     <t xml:space="preserve">Development of 2 tickets (mention ticket IDs if possible) </t>
   </si>
   <si>
     <t>NOTES</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Knowledge transfer and documentation updates </t>
   </si>
   <si>
@@ -255,10 +249,7 @@
     <t>Test on different environments</t>
   </si>
   <si>
-    <t xml:space="preserve">* For the scope of Sprint 29 we've raised the following priorities: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Development of 2 tickets (mention ticket IDs if possible) </t>
+    <t xml:space="preserve">For the scope of Sprint 29 we've raised the following priorities: </t>
   </si>
 </sst>
 </file>
@@ -551,8 +542,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A32:F34" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A32:F34"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A31:F33" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A31:F33"/>
   <tableColumns count="6">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -566,8 +557,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A20:G26" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A20:G26"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A19:G25" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A19:G25"/>
   <tableColumns count="7">
     <tableColumn id="1" name="PRIORITY"/>
     <tableColumn id="2" name="JIRA"/>
@@ -582,8 +573,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A15:C16" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A15:C16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A14:C15" totalsRowShown="0" headerRowDxfId="7">
+  <autoFilter ref="A14:C15"/>
   <tableColumns count="3">
     <tableColumn id="1" name="QUAL" dataDxfId="6"/>
     <tableColumn id="2" name="PREPROD" dataDxfId="5"/>
@@ -594,8 +585,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A7:D8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A6:D7" totalsRowShown="0" dataDxfId="4">
+  <autoFilter ref="A6:D7"/>
   <tableColumns count="4">
     <tableColumn id="1" name="SPRINT" dataDxfId="3"/>
     <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="2"/>
@@ -869,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,193 +884,199 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="12"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="5">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>30</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="12"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="5">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5">
-        <v>30</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>72</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21" t="s">
         <v>2</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22">
-        <v>5</v>
-      </c>
-      <c r="F22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1087,19 +1084,19 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="G23">
         <v>2</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1107,19 +1104,19 @@
         <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1127,196 +1124,164 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25">
         <v>10</v>
       </c>
-      <c r="C25" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25">
-        <v>5</v>
-      </c>
       <c r="G25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="G26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="4" t="s">
+      <c r="C32" t="s">
         <v>48</v>
       </c>
-      <c r="F32" s="4" t="s">
-        <v>34</v>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
         <v>51</v>
       </c>
-      <c r="E33" t="s">
-        <v>52</v>
-      </c>
       <c r="F33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" t="s">
         <v>54</v>
       </c>
-      <c r="D34" t="s">
-        <v>55</v>
-      </c>
-      <c r="E34" t="s">
-        <v>53</v>
-      </c>
-      <c r="F34" t="s">
-        <v>56</v>
-      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>39</v>
+      <c r="A36" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="3"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="12"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B41" s="12"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1347,7 +1312,7 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JCOSTA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717841A-4303-6040-A404-C4E9235A3BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DELIVER" sheetId="1" r:id="rId1"/>
+    <sheet name="AUTOMATION" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -21,17 +22,28 @@
   <definedNames>
     <definedName name="JIRA" localSheetId="0">[1]!JIRA_TABLE[#Data]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
   <si>
     <t>BST-1715</t>
   </si>
@@ -90,9 +102,6 @@
     <t>STATUS</t>
   </si>
   <si>
-    <t>SPRINT 29</t>
-  </si>
-  <si>
     <t>RESUME</t>
   </si>
   <si>
@@ -237,9 +246,6 @@
     <t>DATES</t>
   </si>
   <si>
-    <t>25/06/2024 TO 12/07/2024</t>
-  </si>
-  <si>
     <t>CMP_SPRINT_29</t>
   </si>
   <si>
@@ -250,13 +256,74 @@
   </si>
   <si>
     <t xml:space="preserve">For the scope of Sprint 29 we've raised the following priorities: </t>
+  </si>
+  <si>
+    <t>PROJECT</t>
+  </si>
+  <si>
+    <t>SIGLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MONTH: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DURATION: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECT: </t>
+  </si>
+  <si>
+    <t>MONTH</t>
+  </si>
+  <si>
+    <t>JANUARY</t>
+  </si>
+  <si>
+    <t>FEBRUARY</t>
+  </si>
+  <si>
+    <t>MARCH</t>
+  </si>
+  <si>
+    <t>APRIL</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>JUNE</t>
+  </si>
+  <si>
+    <t>JULY</t>
+  </si>
+  <si>
+    <t>AUGUST</t>
+  </si>
+  <si>
+    <t>SEPTEMBER</t>
+  </si>
+  <si>
+    <t>OCTOBER</t>
+  </si>
+  <si>
+    <t>NOVEMBER</t>
+  </si>
+  <si>
+    <t>DECEMBBER</t>
+  </si>
+  <si>
+    <t>TO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="mmmm"/>
+    <numFmt numFmtId="167" formatCode="dd\.mmm\.yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +362,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -305,7 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,42 +396,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mmmm"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -443,7 +520,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CONCERTO SUMMARY"/>
@@ -490,6 +567,7 @@
       <sheetName val="SPRINT 27"/>
       <sheetName val="SPRINT 28"/>
       <sheetName val="SPRINT 29"/>
+      <sheetName val="Concerto_Sprints_20240627"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -536,64 +614,86 @@
       <sheetData sheetId="41"/>
       <sheetData sheetId="42"/>
       <sheetData sheetId="43"/>
+      <sheetData sheetId="44" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A31:F33" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A31:F33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A34:F36" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A34:F36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="PRIORITY"/>
-    <tableColumn id="2" name="JIRA"/>
-    <tableColumn id="3" name="DESCRIPTION"/>
-    <tableColumn id="4" name="STATUS"/>
-    <tableColumn id="5" name="ACTION"/>
-    <tableColumn id="6" name="COMMENTS"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRIORITY"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="JIRA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="DESCRIPTION"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="STATUS"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ACTION"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="COMMENTS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Development_and_Scope" displayName="Development_and_Scope" ref="A19:G25" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A19:G25"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Development_and_Scope" displayName="Development_and_Scope" ref="A22:G28" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A22:G28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="PRIORITY"/>
-    <tableColumn id="2" name="JIRA"/>
-    <tableColumn id="3" name="DESCRIPTION"/>
-    <tableColumn id="4" name="STATUS"/>
-    <tableColumn id="5" name="STORY POINTS"/>
-    <tableColumn id="6" name="COMMENTS"/>
-    <tableColumn id="7" name="ORDER"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRIORITY"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="JIRA"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="DESCRIPTION"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="STATUS"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="STORY POINTS"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="COMMENTS"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="ORDER"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A14:C15" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A14:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A15:C16" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A15:C16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="QUAL" dataDxfId="6"/>
-    <tableColumn id="2" name="PREPROD" dataDxfId="5"/>
-    <tableColumn id="3" name="PROD"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="QUAL" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PREPROD" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="PROD"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Resume" displayName="Resume" ref="A6:D7" totalsRowShown="0" dataDxfId="4">
-  <autoFilter ref="A6:D7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A7:D8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="SPRINT" dataDxfId="3"/>
-    <tableColumn id="2" name="EXPECTED TICKETS" dataDxfId="2"/>
-    <tableColumn id="3" name="STORY POINTS" dataDxfId="1"/>
-    <tableColumn id="4" name="STATUS OF SPRINT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SPRINT" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="EXPECTED TICKETS" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="STORY POINTS" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="STATUS OF SPRINT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EF4F51B7-56EB-4F4B-8603-FBA28FE94264}" name="PROJECTOS" displayName="PROJECTOS" ref="B3:C5" totalsRowShown="0">
+  <autoFilter ref="B3:C5" xr:uid="{EF4F51B7-56EB-4F4B-8603-FBA28FE94264}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{7ECFED16-E0AD-5744-A5FD-3906EDCAD41B}" name="SIGLA"/>
+    <tableColumn id="2" xr3:uid="{471A125E-622D-8248-A36A-1898A433BC7D}" name="PROJECT"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{B1A8811F-1116-B247-A487-82357078C2A3}" name="MESES" displayName="MESES" ref="F3:F15" totalsRowShown="0">
+  <autoFilter ref="F3:F15" xr:uid="{B1A8811F-1116-B247-A487-82357078C2A3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{73D86F3E-2878-5A4A-8F75-4B493916588C}" name="MONTH" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -859,429 +959,455 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
     <col min="6" max="6" width="62" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.42578125" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="65.5" customWidth="1"/>
+    <col min="10" max="10" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45470</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="11">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B8" s="4">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="13"/>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="5">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>2</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21">
-        <v>5</v>
-      </c>
-      <c r="F21" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23">
-        <v>8</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>12</v>
       </c>
       <c r="E24">
         <v>5</v>
       </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>10</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26">
+        <v>8</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>10</v>
+      </c>
+      <c r="G28">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="12"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1294,41 +1420,131 @@
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F294408D-A86D-8247-A561-037F14BCA081}">
+          <x14:formula1>
+            <xm:f>AUTOMATION!$C$4:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B3B560D-C87F-544E-BA51-35532676578E}">
+          <x14:formula1>
+            <xm:f>AUTOMATION!$F$4:$F$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:G17"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
+      <c r="F5" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1337,5 +1553,9 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Usage Interne / Internal Use</oddFooter>
   </headerFooter>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C717841A-4303-6040-A404-C4E9235A3BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500203E6-C454-6346-825B-200B45E01E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="84">
   <si>
     <t>BST-1715</t>
   </si>
@@ -210,25 +210,7 @@
     <t>DEFINITION OF GOALS</t>
   </si>
   <si>
-    <t xml:space="preserve">Start to prepare release on PROD environment - August 2024 </t>
-  </si>
-  <si>
     <t>RELEASE ON PRODUCTION ENVIRONMENT</t>
-  </si>
-  <si>
-    <t>CREATION AND ANALYSE OF US</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write the new US related to Top Transaction Banking | Select PNL Item to aplly for step 2 VER BY BL </t>
-  </si>
-  <si>
-    <t>Creation of US for Uplouad of Rules</t>
-  </si>
-  <si>
-    <t>BRAINSTORM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brainstorm on Monitoring and Performance topics </t>
   </si>
   <si>
     <t xml:space="preserve">Creation of documentation for features to be worked on this sprint </t>
@@ -320,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="mmmm"/>
-    <numFmt numFmtId="167" formatCode="dd\.mmm\.yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmmm"/>
+    <numFmt numFmtId="165" formatCode="dd\.mmm\.yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,14 +317,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,44 +370,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
-      <numFmt numFmtId="165" formatCode="mmmm"/>
+      <numFmt numFmtId="164" formatCode="mmmm"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -621,8 +594,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A34:F36" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A34:F36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A37:F39" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A37:F39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRIORITY"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="JIRA"/>
@@ -636,8 +609,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Development_and_Scope" displayName="Development_and_Scope" ref="A22:G28" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A22:G28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Development_and_Scope" displayName="Development_and_Scope" ref="A25:G31" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A25:G31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRIORITY"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="JIRA"/>
@@ -652,8 +625,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A15:C16" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A15:C16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A18:C19" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A18:C19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="QUAL" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PREPROD" dataDxfId="6"/>
@@ -664,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A7:D8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resume" displayName="Resume" ref="A10:D11" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A10:D11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SPRINT" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="EXPECTED TICKETS" dataDxfId="3"/>
@@ -960,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:G52"/>
+  <dimension ref="A5:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -982,267 +955,207 @@
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B2" s="4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="11">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="9">
         <v>45470</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="9">
         <v>45485</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="3">
         <v>20</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C11" s="3">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D25" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G25" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="G23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24">
-        <v>5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>63</v>
-      </c>
-      <c r="G24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>8</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>5</v>
       </c>
-      <c r="G27">
-        <v>3</v>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1250,164 +1163,234 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>8</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>10</v>
+      </c>
+      <c r="G31">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="14" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>32</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>46</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>47</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D38" t="s">
         <v>48</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E38" t="s">
         <v>49</v>
       </c>
-      <c r="F35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="F38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>30</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B39" t="s">
         <v>46</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C39" t="s">
         <v>51</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D39" t="s">
         <v>52</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E39" t="s">
         <v>50</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="14" t="s">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B43" s="13"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>58</v>
+      <c r="A48" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>59</v>
+      <c r="A49" s="14"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A52" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A17:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1427,13 +1410,13 @@
           <x14:formula1>
             <xm:f>AUTOMATION!$C$4:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B2</xm:sqref>
+          <xm:sqref>B5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B3B560D-C87F-544E-BA51-35532676578E}">
           <x14:formula1>
             <xm:f>AUTOMATION!$F$4:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B4</xm:sqref>
+          <xm:sqref>B7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1460,18 +1443,18 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1481,10 +1464,10 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="10"/>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -1493,58 +1476,58 @@
       <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F6" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F7" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F6" s="8" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F7" s="8" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F13" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F8" s="8" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F14" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F9" s="8" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="7" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F10" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F11" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F12" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F13" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F14" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F15" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500203E6-C454-6346-825B-200B45E01E68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85796F5B-41F1-7649-871F-737206A71B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -399,7 +399,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,8 +593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A37:F39" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A37:F39" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A33:F35" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A33:F35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRIORITY"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="JIRA"/>
@@ -609,8 +608,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Development_and_Scope" displayName="Development_and_Scope" ref="A25:G31" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A25:G31" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Development_and_Scope" displayName="Development_and_Scope" ref="A21:G27" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A21:G27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRIORITY"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="JIRA"/>
@@ -625,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A18:C19" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A18:C19" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A14:C15" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A14:C15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="QUAL" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PREPROD" dataDxfId="6"/>
@@ -637,8 +636,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resume" displayName="Resume" ref="A10:D11" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A10:D11" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resume" displayName="Resume" ref="A6:D7" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A6:D7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SPRINT" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="EXPECTED TICKETS" dataDxfId="3"/>
@@ -933,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A5:G57"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -955,84 +954,116 @@
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="9">
+        <v>45470</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="9">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="A5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="12"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="9">
-        <v>45470</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="9">
-        <v>45485</v>
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>77</v>
+      <c r="A7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="12"/>
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
+      <c r="A10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11" s="3">
-        <v>20</v>
-      </c>
-      <c r="C11" s="3">
-        <v>30</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>35</v>
-      </c>
+      <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="1"/>
+      <c r="A13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="13"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>36</v>
+      <c r="A14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>38</v>
+      <c r="A15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1040,304 +1071,287 @@
       <c r="B16" s="1"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="13"/>
+      <c r="A17" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
+      <c r="A18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="1"/>
+      <c r="A20" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="1"/>
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>62</v>
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D26" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>58</v>
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="G27">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27">
-        <v>5</v>
-      </c>
-      <c r="F27" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <v>8</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30">
-        <v>5</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="G31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B37" s="1"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" t="s">
-        <v>63</v>
-      </c>
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" t="s">
-        <v>50</v>
-      </c>
-      <c r="F39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41" s="1"/>
+      <c r="A39" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="1"/>
+      <c r="A42" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="12"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43" s="1"/>
+      <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B46" s="12"/>
+      <c r="A46" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
@@ -1345,12 +1359,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1358,39 +1372,15 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="14"/>
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1410,13 +1400,13 @@
           <x14:formula1>
             <xm:f>AUTOMATION!$C$4:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B1</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B3B560D-C87F-544E-BA51-35532676578E}">
           <x14:formula1>
             <xm:f>AUTOMATION!$F$4:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
+          <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Excel_Files/teste.xlsx
+++ b/Excel_Files/teste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaocosta/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85796F5B-41F1-7649-871F-737206A71B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329FDF9F-7758-A54C-A144-77BBCBD10DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -593,8 +593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A33:F35" totalsRowShown="0" headerRowDxfId="10">
-  <autoFilter ref="A33:F35" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Analyse_and_Testing" displayName="Analyse_and_Testing" ref="A34:F36" totalsRowShown="0" headerRowDxfId="10">
+  <autoFilter ref="A34:F36" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PRIORITY"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="JIRA"/>
@@ -608,8 +608,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Development_and_Scope" displayName="Development_and_Scope" ref="A21:G27" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A21:G27" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Development_and_Scope" displayName="Development_and_Scope" ref="A22:G28" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A22:G28" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PRIORITY"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="JIRA"/>
@@ -624,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A14:C15" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A14:C15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Expected_Dates_of_Deployment" displayName="Expected_Dates_of_Deployment" ref="A15:C16" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="A15:C16" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="QUAL" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="PREPROD" dataDxfId="6"/>
@@ -636,8 +636,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resume" displayName="Resume" ref="A6:D7" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A6:D7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Resume" displayName="Resume" ref="A7:D8" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A7:D8" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="SPRINT" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="EXPECTED TICKETS" dataDxfId="3"/>
@@ -932,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A2:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -954,227 +954,207 @@
     <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="9">
-        <v>45470</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="9">
-        <v>45485</v>
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="9">
+        <v>45470</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="9">
+        <v>45485</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B4" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B8" s="3">
         <v>20</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>30</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="B10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-    </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="B14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-    </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="6" t="s">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1182,19 +1162,19 @@
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1202,19 +1182,19 @@
         <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1222,134 +1202,149 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>14</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>10</v>
       </c>
-      <c r="G27">
+      <c r="G28">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12" t="s">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B34" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" t="s">
         <v>46</v>
       </c>
       <c r="C35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
         <v>51</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>52</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>50</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="B38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="12"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1359,12 +1354,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
@@ -1372,15 +1367,20 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1400,13 +1400,13 @@
           <x14:formula1>
             <xm:f>AUTOMATION!$C$4:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>B1</xm:sqref>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8B3B560D-C87F-544E-BA51-35532676578E}">
           <x14:formula1>
             <xm:f>AUTOMATION!$F$4:$F$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
